--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Agrn-Lrp4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Agrn-Lrp4.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>17.306265</v>
+        <v>8.898150666666666</v>
       </c>
       <c r="H2">
-        <v>51.918795</v>
+        <v>26.694452</v>
       </c>
       <c r="I2">
-        <v>0.5463168539988408</v>
+        <v>0.3765197173862137</v>
       </c>
       <c r="J2">
-        <v>0.5463168539988407</v>
+        <v>0.3765197173862137</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.9225163333333333</v>
+        <v>0.3284223333333333</v>
       </c>
       <c r="N2">
-        <v>2.767549</v>
+        <v>0.985267</v>
       </c>
       <c r="O2">
-        <v>0.1157072327300135</v>
+        <v>0.04541528350839906</v>
       </c>
       <c r="P2">
-        <v>0.1157072327300135</v>
+        <v>0.04541528350839906</v>
       </c>
       <c r="Q2">
-        <v>15.965312131495</v>
+        <v>2.922351404298222</v>
       </c>
       <c r="R2">
-        <v>143.687809183455</v>
+        <v>26.301162638684</v>
       </c>
       <c r="S2">
-        <v>0.0632128113699727</v>
+        <v>0.01709974971159718</v>
       </c>
       <c r="T2">
-        <v>0.06321281136997269</v>
+        <v>0.01709974971159718</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>17.306265</v>
+        <v>8.898150666666666</v>
       </c>
       <c r="H3">
-        <v>51.918795</v>
+        <v>26.694452</v>
       </c>
       <c r="I3">
-        <v>0.5463168539988408</v>
+        <v>0.3765197173862137</v>
       </c>
       <c r="J3">
-        <v>0.5463168539988407</v>
+        <v>0.3765197173862137</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.062688333333333</v>
+        <v>4.062688333333334</v>
       </c>
       <c r="N3">
         <v>12.188065</v>
       </c>
       <c r="O3">
-        <v>0.5095654217806198</v>
+        <v>0.5618014481290817</v>
       </c>
       <c r="P3">
-        <v>0.5095654217806198</v>
+        <v>0.5618014481290816</v>
       </c>
       <c r="Q3">
-        <v>70.30996090907499</v>
+        <v>36.15041290170889</v>
       </c>
       <c r="R3">
-        <v>632.7896481816749</v>
+        <v>325.3537161153801</v>
       </c>
       <c r="S3">
-        <v>0.2783841781337806</v>
+        <v>0.2115293224767275</v>
       </c>
       <c r="T3">
-        <v>0.2783841781337805</v>
+        <v>0.2115293224767274</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>17.306265</v>
+        <v>8.898150666666666</v>
       </c>
       <c r="H4">
-        <v>51.918795</v>
+        <v>26.694452</v>
       </c>
       <c r="I4">
-        <v>0.5463168539988408</v>
+        <v>0.3765197173862137</v>
       </c>
       <c r="J4">
-        <v>0.5463168539988407</v>
+        <v>0.3765197173862137</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.987644666666667</v>
+        <v>2.840427</v>
       </c>
       <c r="N4">
-        <v>8.962934000000001</v>
+        <v>8.521281</v>
       </c>
       <c r="O4">
-        <v>0.3747273454893667</v>
+        <v>0.3927832683625193</v>
       </c>
       <c r="P4">
-        <v>0.3747273454893667</v>
+        <v>0.3927832683625193</v>
       </c>
       <c r="Q4">
-        <v>51.70497032717</v>
+        <v>25.274547403668</v>
       </c>
       <c r="R4">
-        <v>465.3447329445301</v>
+        <v>227.470926633012</v>
       </c>
       <c r="S4">
-        <v>0.2047198644950875</v>
+        <v>0.1478906451978891</v>
       </c>
       <c r="T4">
-        <v>0.2047198644950875</v>
+        <v>0.1478906451978891</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>10.03324</v>
       </c>
       <c r="I5">
-        <v>0.1055750256186672</v>
+        <v>0.1415167724465014</v>
       </c>
       <c r="J5">
-        <v>0.1055750256186672</v>
+        <v>0.1415167724465015</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.9225163333333333</v>
+        <v>0.3284223333333333</v>
       </c>
       <c r="N5">
-        <v>2.767549</v>
+        <v>0.985267</v>
       </c>
       <c r="O5">
-        <v>0.1157072327300135</v>
+        <v>0.04541528350839906</v>
       </c>
       <c r="P5">
-        <v>0.1157072327300135</v>
+        <v>0.04541528350839906</v>
       </c>
       <c r="Q5">
-        <v>3.085275925417778</v>
+        <v>1.098380030564444</v>
       </c>
       <c r="R5">
-        <v>27.76748332876</v>
+        <v>9.885420275080001</v>
       </c>
       <c r="S5">
-        <v>0.01221579405973626</v>
+        <v>0.006427024341851459</v>
       </c>
       <c r="T5">
-        <v>0.01221579405973626</v>
+        <v>0.00642702434185146</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>10.03324</v>
       </c>
       <c r="I6">
-        <v>0.1055750256186672</v>
+        <v>0.1415167724465014</v>
       </c>
       <c r="J6">
-        <v>0.1055750256186672</v>
+        <v>0.1415167724465015</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,16 +800,16 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.062688333333333</v>
+        <v>4.062688333333334</v>
       </c>
       <c r="N6">
         <v>12.188065</v>
       </c>
       <c r="O6">
-        <v>0.5095654217806198</v>
+        <v>0.5618014481290817</v>
       </c>
       <c r="P6">
-        <v>0.5095654217806198</v>
+        <v>0.5618014481290816</v>
       </c>
       <c r="Q6">
         <v>13.58730903117778</v>
@@ -818,10 +818,10 @@
         <v>122.2857812806</v>
       </c>
       <c r="S6">
-        <v>0.05379738245887588</v>
+        <v>0.07950432769499824</v>
       </c>
       <c r="T6">
-        <v>0.05379738245887587</v>
+        <v>0.07950432769499824</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>10.03324</v>
       </c>
       <c r="I7">
-        <v>0.1055750256186672</v>
+        <v>0.1415167724465014</v>
       </c>
       <c r="J7">
-        <v>0.1055750256186672</v>
+        <v>0.1415167724465015</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.987644666666667</v>
+        <v>2.840427</v>
       </c>
       <c r="N7">
-        <v>8.962934000000001</v>
+        <v>8.521281</v>
       </c>
       <c r="O7">
-        <v>0.3747273454893667</v>
+        <v>0.3927832683625193</v>
       </c>
       <c r="P7">
-        <v>0.3747273454893667</v>
+        <v>0.3927832683625193</v>
       </c>
       <c r="Q7">
-        <v>9.991918658462223</v>
+        <v>9.499561931160001</v>
       </c>
       <c r="R7">
-        <v>89.92726792616001</v>
+        <v>85.49605738044001</v>
       </c>
       <c r="S7">
-        <v>0.03956184910005504</v>
+        <v>0.05558542040965175</v>
       </c>
       <c r="T7">
-        <v>0.03956184910005503</v>
+        <v>0.05558542040965175</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>11.02739433333333</v>
+        <v>11.39006466666667</v>
       </c>
       <c r="H8">
-        <v>33.082183</v>
+        <v>34.170194</v>
       </c>
       <c r="I8">
-        <v>0.3481081203824922</v>
+        <v>0.4819635101672848</v>
       </c>
       <c r="J8">
-        <v>0.3481081203824921</v>
+        <v>0.4819635101672848</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.9225163333333333</v>
+        <v>0.3284223333333333</v>
       </c>
       <c r="N8">
-        <v>2.767549</v>
+        <v>0.985267</v>
       </c>
       <c r="O8">
-        <v>0.1157072327300135</v>
+        <v>0.04541528350839906</v>
       </c>
       <c r="P8">
-        <v>0.1157072327300135</v>
+        <v>0.04541528350839906</v>
       </c>
       <c r="Q8">
-        <v>10.17295138660744</v>
+        <v>3.740751614644222</v>
       </c>
       <c r="R8">
-        <v>91.55656247946699</v>
+        <v>33.666764531798</v>
       </c>
       <c r="S8">
-        <v>0.04027862730030459</v>
+        <v>0.02188850945495041</v>
       </c>
       <c r="T8">
-        <v>0.04027862730030458</v>
+        <v>0.02188850945495041</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>11.02739433333333</v>
+        <v>11.39006466666667</v>
       </c>
       <c r="H9">
-        <v>33.082183</v>
+        <v>34.170194</v>
       </c>
       <c r="I9">
-        <v>0.3481081203824922</v>
+        <v>0.4819635101672848</v>
       </c>
       <c r="J9">
-        <v>0.3481081203824921</v>
+        <v>0.4819635101672848</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -986,28 +986,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.062688333333333</v>
+        <v>4.062688333333334</v>
       </c>
       <c r="N9">
         <v>12.188065</v>
       </c>
       <c r="O9">
-        <v>0.5095654217806198</v>
+        <v>0.5618014481290817</v>
       </c>
       <c r="P9">
-        <v>0.5095654217806198</v>
+        <v>0.5618014481290816</v>
       </c>
       <c r="Q9">
-        <v>44.80086630509944</v>
+        <v>46.2742828371789</v>
       </c>
       <c r="R9">
-        <v>403.2077967458949</v>
+        <v>416.4685455346101</v>
       </c>
       <c r="S9">
-        <v>0.1773838611879634</v>
+        <v>0.270767797957356</v>
       </c>
       <c r="T9">
-        <v>0.1773838611879634</v>
+        <v>0.2707677979573559</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>11.02739433333333</v>
+        <v>11.39006466666667</v>
       </c>
       <c r="H10">
-        <v>33.082183</v>
+        <v>34.170194</v>
       </c>
       <c r="I10">
-        <v>0.3481081203824922</v>
+        <v>0.4819635101672848</v>
       </c>
       <c r="J10">
-        <v>0.3481081203824921</v>
+        <v>0.4819635101672848</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.987644666666667</v>
+        <v>2.840427</v>
       </c>
       <c r="N10">
-        <v>8.962934000000001</v>
+        <v>8.521281</v>
       </c>
       <c r="O10">
-        <v>0.3747273454893667</v>
+        <v>0.3927832683625193</v>
       </c>
       <c r="P10">
-        <v>0.3747273454893667</v>
+        <v>0.3927832683625193</v>
       </c>
       <c r="Q10">
-        <v>32.94593586721356</v>
+        <v>32.352647210946</v>
       </c>
       <c r="R10">
-        <v>296.513422804922</v>
+        <v>291.173824898514</v>
       </c>
       <c r="S10">
-        <v>0.1304456318942242</v>
+        <v>0.1893072027549784</v>
       </c>
       <c r="T10">
-        <v>0.1304456318942242</v>
+        <v>0.1893072027549784</v>
       </c>
     </row>
   </sheetData>
